--- a/app/data/pcp_concept_map.xlsx
+++ b/app/data/pcp_concept_map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jennad\Documents\GitHub\person_centered\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68EEA8B6-A993-4E35-BEFC-38C4E97B3C39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32150558-F692-4E53-A5BC-DF58FBE5FDC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0FF5C345-8363-416F-BD94-A73AAC7F19E9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0FF5C345-8363-416F-BD94-A73AAC7F19E9}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -255,9 +255,6 @@
     <t>ipos;treatment plan;plan of service;plan of care;care plan</t>
   </si>
   <si>
-    <t>The document produced as a result of the 'preplanning'</t>
-  </si>
-  <si>
     <t>The Person Centered Planning Process is a continuous, co-designed, and person-driven approach to service delivery designed to promote and strive toward the life a person wants to live.  This process includes information and education; individual, evidence-based assessment; pre-planning; collaborative meetings; implementation and monitoring with the intent of driving services through a person-centered plan of service while building or recovering autonomy, competence and relatedness.</t>
   </si>
   <si>
@@ -375,12 +372,6 @@
     <t>focus_goals</t>
   </si>
   <si>
-    <t>Rank existing goals according to their importance for the person and other considerations</t>
-  </si>
-  <si>
-    <t>Include or filter out goals/objectives based on priority and other considerations</t>
-  </si>
-  <si>
     <t>select_services</t>
   </si>
   <si>
@@ -447,9 +438,6 @@
     <t>The aspects of the person which allow him/her to imagine a future, to make choices, and to plan and work to achieve their goals.</t>
   </si>
   <si>
-    <t>The relationships which a person has to their context: the people, places and things around them</t>
-  </si>
-  <si>
     <t>Beliefs and standards to which a person ascribes, and which inform their goals and objectives.</t>
   </si>
   <si>
@@ -465,30 +453,18 @@
     <t>The physical setting in which a service is provided.  This may include a hospital, office, or community-based setting.</t>
   </si>
   <si>
-    <t>Property owned by the person or to which the person has rights (e.g. via a lease)</t>
-  </si>
-  <si>
     <t>The local neighborhood environment in which the person's home is located; for rural areas, this may be a larger area of adjacent properties.</t>
   </si>
   <si>
     <t xml:space="preserve">Accessible areas of natural environment, including parks, managed forests, wilderness areas, and more. </t>
   </si>
   <si>
-    <t>Any resource to which a person has access, either through ownership or as a purchased/covered service</t>
-  </si>
-  <si>
     <t>The document(s) which collectively make up all goals, objectives and related services which are actively being pursued by/for a person at any given time.</t>
   </si>
   <si>
-    <t>A crisis or safety plan identifying the person's wishes in the event that they are unable to make decsions (e.g. in certain psychiatric or other crisis events)</t>
-  </si>
-  <si>
     <t>A comprehensive plan including all active goals/objectives and the services and other supports related to these.</t>
   </si>
   <si>
-    <t>Discipline-specific plans of treatment which may include more detailed short-term objectives pursued as part of a treatment regimen (e.g. detailed occupational therapy goals)</t>
-  </si>
-  <si>
     <t>Document detailing changes to the plan of service in order to adjust goals, objectives, and services based on the person's changing capabilities, opportunities, and motivation.</t>
   </si>
   <si>
@@ -504,18 +480,9 @@
     <t>Take in all relevant information related to the person and their direction/definition/connections. Note changes.</t>
   </si>
   <si>
-    <t>Interpretation of observations to make a meaningful 'story' about the relationship of the person's desired direction and current situation (description and connections)</t>
-  </si>
-  <si>
-    <t>Prioritize options and decide on areas of focus for implementation</t>
-  </si>
-  <si>
     <t>Implement decisions made by the person (e.g. by training providers and providing services as specified).  Loop back to observe whether the change is having the intended effect.</t>
   </si>
   <si>
-    <t xml:space="preserve">Collaborative meeting(s) </t>
-  </si>
-  <si>
     <t>A set of practices intended to align the use of the benefit with the goals and objectives of the person receiving services, and to tailor those services in a personalized manner.</t>
   </si>
   <si>
@@ -525,18 +492,12 @@
     <t>The use of self-directed budgets which give individuals authority and direct responsibility to manage their services with the assistance of available supports.</t>
   </si>
   <si>
-    <t>Proximity and ease of access to resources</t>
-  </si>
-  <si>
     <t>Written statement of a person's wishes regarding treatment, made to ensure those wishes are carried out if the person is unable to communicate.  Includes psychiatric advance directives.</t>
   </si>
   <si>
     <t>The absence conflicts of interest for the providers and funders involved.</t>
   </si>
   <si>
-    <t>The need to be free from risks to health or safety which are not voluntarily taken by the person's conscious decision</t>
-  </si>
-  <si>
     <t>Planning document detailing the transition of a person's care from one facility, provider, or level-of-care to another.</t>
   </si>
   <si>
@@ -546,9 +507,6 @@
     <t>A specialized plan for the purpose of treating, managing, controlling, or extinguishing behaviors that are  seriously  aggressive,  self-injurious,  or  that  place  the  individual  or  others  at  risk  of  harm.</t>
   </si>
   <si>
-    <t>Methods for assisting the person in facilitating the person-centered planning process</t>
-  </si>
-  <si>
     <t>The person's decision of which goals and objectives to pursue.</t>
   </si>
   <si>
@@ -564,27 +522,9 @@
     <t>The ability to complete and manage aspects of caring for one's own physical and behavioral needs which may otherwise require assistance.</t>
   </si>
   <si>
-    <t>Availability of information which is relevant for personal decision-making</t>
-  </si>
-  <si>
-    <t>Access to affordable, healthy food options (especially fresh fruits and vegetables) within convenient traveling distance</t>
-  </si>
-  <si>
-    <t>Access to funds which belong to the person</t>
-  </si>
-  <si>
-    <t>The person's decision of how their goals and objectives will be pursued and supported by the benefit</t>
-  </si>
-  <si>
-    <t>Selection of specific services which are relevant to support a person's achievement of their goals/objectives</t>
-  </si>
-  <si>
     <t>Selection of specific provider agencies and specific clinicians/staff to provide the selected services.</t>
   </si>
   <si>
-    <t>For people receiving services including housing, the selection of a specific living arrangement</t>
-  </si>
-  <si>
     <t>For people receiving services including housing, the selection of a specific home location from a set of options.</t>
   </si>
   <si>
@@ -621,9 +561,6 @@
     <t>The broader region in which a person lives, which impacts the person through availability and proximity of resources (e.g. urban/rural, health professionals) and opportunities (e.g. labor market).</t>
   </si>
   <si>
-    <t>The exchange of goods, services and labor in the area where the person lives</t>
-  </si>
-  <si>
     <t>Adjustments made to the plan based on changes in the person's priorities, situation, needs or other factors.</t>
   </si>
   <si>
@@ -631,6 +568,69 @@
   </si>
   <si>
     <t>The state of being that a person aspires to (hopes and dreams), as well as the specific steps that are intended to lead to the achievement of that status.</t>
+  </si>
+  <si>
+    <t>The relationships which a person has to their context: the people, places and things around them.</t>
+  </si>
+  <si>
+    <t>The need to be free from risks to health or safety which are not voluntarily taken by the person's conscious decision.</t>
+  </si>
+  <si>
+    <t>Any resource to which a person has access, either through ownership or as a purchased/covered service.</t>
+  </si>
+  <si>
+    <t>Property owned by the person or to which the person has rights (e.g. via a lease).</t>
+  </si>
+  <si>
+    <t>Access to funds which belong to the person.</t>
+  </si>
+  <si>
+    <t>Access to affordable, healthy food options (especially fresh fruits and vegetables) within convenient traveling distance.</t>
+  </si>
+  <si>
+    <t>Availability of information which is relevant for personal decision-making.</t>
+  </si>
+  <si>
+    <t>The exchange of goods, services and labor in the area where the person lives.</t>
+  </si>
+  <si>
+    <t>Proximity and ease of access to resources.</t>
+  </si>
+  <si>
+    <t>The document produced as a result of the 'preplanning'.</t>
+  </si>
+  <si>
+    <t>Discipline-specific plans of treatment which may include more detailed short-term objectives pursued as part of a treatment regimen (e.g. detailed occupational therapy goals).</t>
+  </si>
+  <si>
+    <t>A crisis or safety plan identifying the person's wishes in the event that they are unable to make decsions (e.g. in certain psychiatric or other crisis events).</t>
+  </si>
+  <si>
+    <t>Methods for assisting the person in facilitating the person-centered planning process.</t>
+  </si>
+  <si>
+    <t>Interpretation of observations to make a meaningful 'story' about the relationship of the person's desired direction and current situation (description and connections).</t>
+  </si>
+  <si>
+    <t>Prioritize options and decide on areas of focus for implementation.</t>
+  </si>
+  <si>
+    <t>Rank existing goals according to their importance for the person and other considerations.</t>
+  </si>
+  <si>
+    <t>Include or filter out goals/objectives based on priority and other considerations.</t>
+  </si>
+  <si>
+    <t>The person's decision of how their goals and objectives will be pursued and supported by the benefit.</t>
+  </si>
+  <si>
+    <t>Selection of specific services which are relevant to support a person's achievement of their goals/objectives.</t>
+  </si>
+  <si>
+    <t>For people receiving services including housing, the selection of a specific living arrangement.</t>
+  </si>
+  <si>
+    <t>Collaborative meeting(s).</t>
   </si>
 </sst>
 </file>
@@ -985,13 +985,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C05ACD2A-13A2-4395-8DF2-06F267761D54}">
   <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.5546875" customWidth="1"/>
+    <col min="3" max="3" width="255.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1025,7 +1027,7 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -1036,7 +1038,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1047,7 +1049,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="D5" t="s">
         <v>65</v>
@@ -1055,10 +1057,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="D6" t="s">
         <v>46</v>
@@ -1066,15 +1068,15 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D8" t="s">
         <v>62</v>
@@ -1085,15 +1087,15 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C10" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1101,7 +1103,7 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="D11" t="s">
         <v>47</v>
@@ -1112,7 +1114,7 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D12" t="s">
         <v>67</v>
@@ -1120,10 +1122,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1131,7 +1133,7 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="D14" t="s">
         <v>64</v>
@@ -1139,10 +1141,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1150,7 +1152,7 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1161,7 +1163,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D17" t="s">
         <v>58</v>
@@ -1172,7 +1174,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D18" t="s">
         <v>66</v>
@@ -1191,7 +1193,7 @@
         <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="D20" t="s">
         <v>51</v>
@@ -1213,7 +1215,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="D22" t="s">
         <v>48</v>
@@ -1224,15 +1226,15 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D24" t="s">
         <v>52</v>
@@ -1240,10 +1242,10 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
@@ -1251,7 +1253,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="D26" t="s">
         <v>53</v>
@@ -1262,7 +1264,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D27" t="s">
         <v>49</v>
@@ -1270,34 +1272,34 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C30" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
@@ -1313,7 +1315,7 @@
         <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
@@ -1321,28 +1323,28 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C35" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C36" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
@@ -1350,15 +1352,15 @@
         <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
@@ -1366,15 +1368,15 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41" t="s">
-        <v>73</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
@@ -1382,23 +1384,23 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C43" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C44" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D44" t="s">
         <v>72</v>
@@ -1406,26 +1408,26 @@
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C45" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C46" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="D47" t="s">
         <v>70</v>
@@ -1433,63 +1435,63 @@
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C48" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C50" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C51" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C52" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C53" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C54" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D55" t="s">
         <v>59</v>
@@ -1497,26 +1499,26 @@
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C56" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C57" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C58" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
@@ -1524,116 +1526,116 @@
         <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C60" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C61" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C63" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C64" t="s">
-        <v>113</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C65" t="s">
-        <v>114</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C66" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C67" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C68" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C69" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C70" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C71" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
@@ -1641,7 +1643,7 @@
         <v>34</v>
       </c>
       <c r="C74" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="D74" t="s">
         <v>55</v>
@@ -1649,10 +1651,10 @@
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C75" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.3">
@@ -1660,7 +1662,7 @@
         <v>33</v>
       </c>
       <c r="C76" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="D76" t="s">
         <v>61</v>
@@ -1668,10 +1670,10 @@
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="D77" t="s">
         <v>60</v>
@@ -1679,34 +1681,34 @@
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C78" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C79" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C80" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C81" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="D81" t="s">
         <v>56</v>
@@ -1792,7 +1794,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -1803,7 +1805,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1825,7 +1827,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -1836,7 +1838,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -1869,7 +1871,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -1891,7 +1893,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -1957,7 +1959,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -1968,7 +1970,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -2001,7 +2003,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24" t="s">
         <v>38</v>
@@ -2012,7 +2014,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B25" t="s">
         <v>38</v>
@@ -2034,7 +2036,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B27" t="s">
         <v>38</v>
@@ -2045,7 +2047,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
@@ -2056,7 +2058,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
@@ -2067,7 +2069,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B30" t="s">
         <v>25</v>
@@ -2100,7 +2102,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B33" t="s">
         <v>19</v>
@@ -2111,7 +2113,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B34" t="s">
         <v>19</v>
@@ -2122,10 +2124,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B35" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C35" t="s">
         <v>71</v>
@@ -2155,10 +2157,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C38" t="s">
         <v>29</v>
@@ -2166,21 +2168,21 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B40" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C40" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -2188,7 +2190,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C41" t="s">
         <v>29</v>
@@ -2196,10 +2198,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
         <v>69</v>
@@ -2207,10 +2209,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
         <v>69</v>
@@ -2218,10 +2220,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
         <v>69</v>
@@ -2232,7 +2234,7 @@
         <v>68</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C45" t="s">
         <v>69</v>
@@ -2240,10 +2242,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C46" t="s">
         <v>32</v>
@@ -2251,10 +2253,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C47" t="s">
         <v>37</v>
@@ -2262,10 +2264,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C48" t="s">
         <v>37</v>
@@ -2276,7 +2278,7 @@
         <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C49" t="s">
         <v>32</v>
@@ -2287,7 +2289,7 @@
         <v>34</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C50" t="s">
         <v>32</v>
@@ -2295,10 +2297,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C51" t="s">
         <v>32</v>
@@ -2306,10 +2308,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C52" t="s">
         <v>32</v>
@@ -2317,10 +2319,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C53" t="s">
         <v>32</v>
@@ -2328,10 +2330,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C54" t="s">
         <v>32</v>
@@ -2339,10 +2341,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C55" t="s">
         <v>32</v>
@@ -2350,10 +2352,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C56" t="s">
         <v>32</v>
@@ -2361,10 +2363,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C57" t="s">
         <v>32</v>
@@ -2372,10 +2374,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B58" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C58" t="s">
         <v>32</v>
@@ -2383,10 +2385,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B59" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C59" t="s">
         <v>32</v>
@@ -2394,10 +2396,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C60" t="s">
         <v>32</v>
@@ -2405,10 +2407,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C61" t="s">
         <v>32</v>
@@ -2416,10 +2418,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B62" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C62" t="s">
         <v>32</v>
@@ -2427,10 +2429,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B63" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C63" t="s">
         <v>32</v>
@@ -2438,10 +2440,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B64" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C64" t="s">
         <v>32</v>
@@ -2449,7 +2451,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B65" t="s">
         <v>68</v>
@@ -2460,7 +2462,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B66" t="s">
         <v>68</v>
@@ -2471,7 +2473,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B67" t="s">
         <v>68</v>
@@ -2485,7 +2487,7 @@
         <v>43</v>
       </c>
       <c r="B68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C68" t="s">
         <v>32</v>
@@ -2493,7 +2495,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B69" t="s">
         <v>39</v>
@@ -2504,7 +2506,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B70" t="s">
         <v>39</v>
@@ -2515,10 +2517,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C71" t="s">
         <v>71</v>
@@ -2526,10 +2528,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C72" t="s">
         <v>71</v>
@@ -2537,10 +2539,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" t="s">
         <v>79</v>
-      </c>
-      <c r="B73" t="s">
-        <v>80</v>
       </c>
       <c r="C73" t="s">
         <v>71</v>
@@ -2548,10 +2550,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C74" t="s">
         <v>71</v>
@@ -2562,7 +2564,7 @@
         <v>40</v>
       </c>
       <c r="B75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C75" t="s">
         <v>71</v>
@@ -2570,7 +2572,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B76" t="s">
         <v>39</v>
@@ -2581,7 +2583,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B77" t="s">
         <v>39</v>
@@ -2592,10 +2594,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C78" t="s">
         <v>13</v>
@@ -2603,10 +2605,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B79" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C79" t="s">
         <v>13</v>

--- a/app/data/pcp_concept_map.xlsx
+++ b/app/data/pcp_concept_map.xlsx
@@ -2650,4 +2650,210 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010001449525CC0D4A468C2D365388B70649" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a65db98c773bd2adb4fb1a4f8779ddbc">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="40c76612-3c18-47b5-846f-dcb51c2524b6" xmlns:ns3="23cfef9c-d18f-476b-8e1f-a34664fe34b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="33571bcc6e90c6922cba96434e625580" ns2:_="" ns3:_="">
+    <xsd:import namespace="40c76612-3c18-47b5-846f-dcb51c2524b6"/>
+    <xsd:import namespace="23cfef9c-d18f-476b-8e1f-a34664fe34b8"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="40c76612-3c18-47b5-846f-dcb51c2524b6" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="23cfef9c-d18f-476b-8e1f-a34664fe34b8" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{569EEA8A-4F6D-470D-8434-CB834DBE145E}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1E47B07-5301-4B68-8356-3BA26E8D9BC2}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4803A638-4724-4AF0-AD8E-CD3437E112AA}"/>
 </file>
--- a/app/data/pcp_concept_map.xlsx
+++ b/app/data/pcp_concept_map.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jennad\Documents\GitHub\person_centered\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32150558-F692-4E53-A5BC-DF58FBE5FDC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78D9F77-4E13-4F78-A052-752868CACDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0FF5C345-8363-416F-BD94-A73AAC7F19E9}"/>
   </bookViews>
@@ -16,6 +16,10 @@
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
     <sheet name="edges" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">edges!$A$1:$C$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nodes!$A$1:$E$121</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="275">
   <si>
     <t>concept_id</t>
   </si>
@@ -567,9 +571,6 @@
     <t xml:space="preserve">The deliberate organization of information, activities or resources between two or more participants involved in a person's services to facilitate the appropriate delivery of those services. </t>
   </si>
   <si>
-    <t>The state of being that a person aspires to (hopes and dreams), as well as the specific steps that are intended to lead to the achievement of that status.</t>
-  </si>
-  <si>
     <t>The relationships which a person has to their context: the people, places and things around them.</t>
   </si>
   <si>
@@ -631,6 +632,237 @@
   </si>
   <si>
     <t>Collaborative meeting(s).</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>ipos_development</t>
+  </si>
+  <si>
+    <t>define_logistics</t>
+  </si>
+  <si>
+    <t>develop_agenda</t>
+  </si>
+  <si>
+    <t>time_location</t>
+  </si>
+  <si>
+    <t>consider_culture</t>
+  </si>
+  <si>
+    <t>select_invitees</t>
+  </si>
+  <si>
+    <t>approve_roles</t>
+  </si>
+  <si>
+    <t>conflict_planning</t>
+  </si>
+  <si>
+    <t>choose_format</t>
+  </si>
+  <si>
+    <t>identify_facilitator</t>
+  </si>
+  <si>
+    <t>identify_notetaker</t>
+  </si>
+  <si>
+    <t>discuss_strengths</t>
+  </si>
+  <si>
+    <t>identify_goals</t>
+  </si>
+  <si>
+    <t>identify_capability</t>
+  </si>
+  <si>
+    <t>identify_opportunity</t>
+  </si>
+  <si>
+    <t>refine_goals</t>
+  </si>
+  <si>
+    <t>define_preferences</t>
+  </si>
+  <si>
+    <t>plans_to_achieve</t>
+  </si>
+  <si>
+    <t>define_methods</t>
+  </si>
+  <si>
+    <t>design_service_pkg</t>
+  </si>
+  <si>
+    <t>request_services</t>
+  </si>
+  <si>
+    <t>treatment_options</t>
+  </si>
+  <si>
+    <t>medical_necessity</t>
+  </si>
+  <si>
+    <t>responsible_party</t>
+  </si>
+  <si>
+    <t>housing_options</t>
+  </si>
+  <si>
+    <t>scope</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>person_signed</t>
+  </si>
+  <si>
+    <t>cm_signed</t>
+  </si>
+  <si>
+    <t>support_signed</t>
+  </si>
+  <si>
+    <t>Learn more about the person.</t>
+  </si>
+  <si>
+    <t>Define PCP meeting logistics.</t>
+  </si>
+  <si>
+    <t>Identify PCP meeting facilitator.</t>
+  </si>
+  <si>
+    <t>Identify PCP meeting notetaker.</t>
+  </si>
+  <si>
+    <t>Develop agenda for PCP meeting.</t>
+  </si>
+  <si>
+    <t>Approve roles for PCP meeting.</t>
+  </si>
+  <si>
+    <t>Decide when and where the meeting will be held (the person’s choice).</t>
+  </si>
+  <si>
+    <t>Consider a person's culture.</t>
+  </si>
+  <si>
+    <t>Develop a list of accommodations and information the person may need to meaningfully participate in the meeting.</t>
+  </si>
+  <si>
+    <t>Select PCP meeting invitees (the person’s choice).</t>
+  </si>
+  <si>
+    <t>Plan for potential conflicts of interest or disagreements that may arise during the PCP.</t>
+  </si>
+  <si>
+    <t>Choose the specific PCP format or tool (the person’s choice).</t>
+  </si>
+  <si>
+    <t>Design personalized service package to support goals/objectives/outcomes.</t>
+  </si>
+  <si>
+    <t>Endorse service package with person.</t>
+  </si>
+  <si>
+    <t>Endorse IPOS document.</t>
+  </si>
+  <si>
+    <t>Request services.</t>
+  </si>
+  <si>
+    <t>Discuss strengths interests, and abilities.</t>
+  </si>
+  <si>
+    <t>Identify goals/outcomes.</t>
+  </si>
+  <si>
+    <t>Identify capability related to each goal.</t>
+  </si>
+  <si>
+    <t>Identify opportunities to achieve each goal.</t>
+  </si>
+  <si>
+    <t>Refine goals/objectives.</t>
+  </si>
+  <si>
+    <t>Define personal preferences related to supports.</t>
+  </si>
+  <si>
+    <t>Make plans for the person to achieve identified outcomes.</t>
+  </si>
+  <si>
+    <t>Define methods for the person to request updates, as needed.</t>
+  </si>
+  <si>
+    <t>Identify service options related to persons goals, objectives, and needs.</t>
+  </si>
+  <si>
+    <t>Identify available provider/support options.</t>
+  </si>
+  <si>
+    <t>Confirm medical necessity for paid services.</t>
+  </si>
+  <si>
+    <t>Identify risk factors and mitigation strategies.</t>
+  </si>
+  <si>
+    <t>Identify the individual and/or entity responsible for monitoring the IPOS.</t>
+  </si>
+  <si>
+    <t>Identify available housing options.</t>
+  </si>
+  <si>
+    <t>Identify and record alternatives to HCBS settings that were considered.</t>
+  </si>
+  <si>
+    <t>Scope of services.</t>
+  </si>
+  <si>
+    <t>Amount of services.</t>
+  </si>
+  <si>
+    <t>Duration of services.</t>
+  </si>
+  <si>
+    <t>Signed by the person and/or representative.</t>
+  </si>
+  <si>
+    <t>Signed by the case manager or the  support coordinator.</t>
+  </si>
+  <si>
+    <t>Signed by the support broker/agent (if one is involved).</t>
+  </si>
+  <si>
+    <t>accommodations</t>
+  </si>
+  <si>
+    <t>providers</t>
+  </si>
+  <si>
+    <t>alternatives</t>
+  </si>
+  <si>
+    <t>risk_factors</t>
+  </si>
+  <si>
+    <t>endorse_services</t>
+  </si>
+  <si>
+    <t>endorse_ipos</t>
+  </si>
+  <si>
+    <t>life_goals</t>
+  </si>
+  <si>
+    <t>The state of being that a person aspires to (hopes and dreams).</t>
   </si>
 </sst>
 </file>
@@ -983,17 +1215,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C05ACD2A-13A2-4395-8DF2-06F267761D54}">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.88671875" customWidth="1"/>
     <col min="4" max="4" width="47.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1016,715 +1248,1016 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>63</v>
+        <v>267</v>
+      </c>
+      <c r="C2" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>92</v>
+        <v>269</v>
+      </c>
+      <c r="C7" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>89</v>
+        <v>225</v>
       </c>
       <c r="C8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" t="s">
-        <v>62</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>171</v>
+        <v>167</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="C11" t="s">
-        <v>159</v>
-      </c>
-      <c r="D11" t="s">
-        <v>47</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>160</v>
-      </c>
-      <c r="D12" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C13" t="s">
-        <v>161</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>15</v>
+        <v>207</v>
       </c>
       <c r="C14" t="s">
-        <v>170</v>
-      </c>
-      <c r="D14" t="s">
-        <v>64</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>88</v>
+        <v>228</v>
       </c>
       <c r="C15" t="s">
-        <v>179</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="C17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D17" t="s">
-        <v>58</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>36</v>
+        <v>206</v>
       </c>
       <c r="C18" t="s">
-        <v>146</v>
-      </c>
-      <c r="D18" t="s">
-        <v>66</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>30</v>
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>177</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>42</v>
+        <v>203</v>
       </c>
       <c r="C20" t="s">
-        <v>158</v>
-      </c>
-      <c r="D20" t="s">
-        <v>51</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>188</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s">
-        <v>182</v>
-      </c>
-      <c r="D24" t="s">
-        <v>52</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
-      </c>
-      <c r="D27" t="s">
-        <v>49</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>85</v>
+        <v>217</v>
       </c>
       <c r="C28" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>87</v>
+        <v>215</v>
       </c>
       <c r="C29" t="s">
-        <v>138</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>176</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>151</v>
+        <v>132</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" t="s">
-        <v>54</v>
+        <v>218</v>
+      </c>
+      <c r="C32" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>27</v>
+        <v>201</v>
       </c>
       <c r="C33" t="s">
-        <v>140</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="C34" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>97</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>174</v>
+        <v>133</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="C36" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>124</v>
+        <v>210</v>
+      </c>
+      <c r="C37" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>149</v>
+        <v>226</v>
+      </c>
+      <c r="C39" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="C40" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>76</v>
-      </c>
-      <c r="C41" t="s">
-        <v>187</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>40</v>
+        <v>272</v>
       </c>
       <c r="C42" t="s">
-        <v>143</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>96</v>
+        <v>271</v>
       </c>
       <c r="C43" t="s">
-        <v>155</v>
+        <v>243</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>141</v>
+        <v>45</v>
       </c>
       <c r="D44" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="C45" t="s">
-        <v>142</v>
+        <v>146</v>
+      </c>
+      <c r="D45" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C46" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="C47" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="D47" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>128</v>
+        <v>273</v>
       </c>
       <c r="C48" t="s">
-        <v>156</v>
+        <v>274</v>
+      </c>
+      <c r="D48" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>80</v>
-      </c>
-      <c r="C50" t="s">
-        <v>152</v>
+        <v>26</v>
+      </c>
+      <c r="D50" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>93</v>
+        <v>223</v>
       </c>
       <c r="C51" t="s">
-        <v>154</v>
+        <v>259</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>121</v>
+        <v>212</v>
       </c>
       <c r="C52" t="s">
-        <v>190</v>
+        <v>248</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>94</v>
+        <v>208</v>
       </c>
       <c r="C53" t="s">
-        <v>169</v>
+        <v>232</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c r="C54" t="s">
-        <v>153</v>
+        <v>247</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>82</v>
+        <v>209</v>
       </c>
       <c r="C55" t="s">
-        <v>73</v>
-      </c>
-      <c r="D55" t="s">
-        <v>59</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>99</v>
+        <v>213</v>
       </c>
       <c r="C56" t="s">
-        <v>147</v>
+        <v>249</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="C57" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C58" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="C59" t="s">
-        <v>148</v>
+        <v>183</v>
+      </c>
+      <c r="D59" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>102</v>
-      </c>
-      <c r="C60" t="s">
-        <v>105</v>
+        <v>199</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>103</v>
+        <v>198</v>
       </c>
       <c r="C61" t="s">
-        <v>107</v>
+        <v>230</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C62" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>108</v>
+        <v>221</v>
       </c>
       <c r="C63" t="s">
-        <v>157</v>
+        <v>256</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="C64" t="s">
-        <v>193</v>
+        <v>165</v>
+      </c>
+      <c r="D64" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C65" t="s">
-        <v>194</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="C66" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>196</v>
+        <v>170</v>
+      </c>
+      <c r="D67" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="C68" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C69" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C70" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C71" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C72" t="s">
-        <v>74</v>
+        <v>190</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>117</v>
+        <v>43</v>
+      </c>
+      <c r="D73" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="C74" t="s">
-        <v>165</v>
-      </c>
-      <c r="D74" t="s">
-        <v>55</v>
+        <v>189</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C75" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="C76" t="s">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="D76" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="C77" t="s">
-        <v>168</v>
-      </c>
-      <c r="D77" t="s">
-        <v>60</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>83</v>
-      </c>
-      <c r="C78" t="s">
-        <v>198</v>
+        <v>3</v>
+      </c>
+      <c r="D78" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>120</v>
-      </c>
-      <c r="C79" t="s">
-        <v>172</v>
+        <v>95</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>119</v>
+        <v>227</v>
       </c>
       <c r="C80" t="s">
-        <v>173</v>
+        <v>264</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D81" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>43</v>
+        <v>79</v>
+      </c>
+      <c r="C82" t="s">
+        <v>141</v>
       </c>
       <c r="D82" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>38</v>
+        <v>127</v>
+      </c>
+      <c r="C83" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>216</v>
+      </c>
+      <c r="C84" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>76</v>
+      </c>
+      <c r="C85" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>77</v>
+      </c>
+      <c r="C86" t="s">
+        <v>168</v>
+      </c>
+      <c r="D86" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" t="s">
+        <v>159</v>
+      </c>
+      <c r="D87" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>110</v>
+      </c>
+      <c r="C88" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>23</v>
+      </c>
+      <c r="C89" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>268</v>
+      </c>
+      <c r="C90" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>28</v>
+      </c>
+      <c r="C91" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>214</v>
+      </c>
+      <c r="C92" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" t="s">
+        <v>144</v>
+      </c>
+      <c r="D94" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>219</v>
+      </c>
+      <c r="C95" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>20</v>
+      </c>
+      <c r="C96" t="s">
+        <v>179</v>
+      </c>
+      <c r="D96" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>222</v>
+      </c>
+      <c r="C97" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>270</v>
+      </c>
+      <c r="C98" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>88</v>
+      </c>
+      <c r="C99" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>224</v>
+      </c>
+      <c r="C100" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>86</v>
+      </c>
+      <c r="C101" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>114</v>
+      </c>
+      <c r="C102" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>204</v>
+      </c>
+      <c r="C103" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>115</v>
+      </c>
+      <c r="C104" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>113</v>
+      </c>
+      <c r="C105" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>116</v>
+      </c>
+      <c r="C106" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>112</v>
+      </c>
+      <c r="C107" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>90</v>
+      </c>
+      <c r="C109" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>91</v>
+      </c>
+      <c r="C110" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>125</v>
+      </c>
+      <c r="C111" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>85</v>
+      </c>
+      <c r="C112" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>87</v>
+      </c>
+      <c r="C113" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>25</v>
+      </c>
+      <c r="C114" t="s">
+        <v>137</v>
+      </c>
+      <c r="D114" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115" t="s">
+        <v>160</v>
+      </c>
+      <c r="D115" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>229</v>
+      </c>
+      <c r="C116" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>202</v>
+      </c>
+      <c r="C117" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>120</v>
+      </c>
+      <c r="C118" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>220</v>
+      </c>
+      <c r="C119" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>129</v>
+      </c>
+      <c r="C120" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1735,16 +2268,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF48633-CF04-43E6-BDE3-853AAD3D30AA}">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2198,18 +2731,15 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="B42" t="s">
         <v>82</v>
       </c>
-      <c r="C42" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B43" t="s">
         <v>82</v>
@@ -2220,10 +2750,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>199</v>
       </c>
       <c r="C44" t="s">
         <v>69</v>
@@ -2231,10 +2761,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>199</v>
       </c>
       <c r="C45" t="s">
         <v>69</v>
@@ -2242,29 +2772,29 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B47" t="s">
         <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="B48" t="s">
         <v>99</v>
@@ -2275,18 +2805,18 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="B49" t="s">
         <v>99</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B50" t="s">
         <v>99</v>
@@ -2297,10 +2827,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C51" t="s">
         <v>32</v>
@@ -2308,7 +2838,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="B52" t="s">
         <v>100</v>
@@ -2319,54 +2849,42 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>198</v>
       </c>
       <c r="B53" t="s">
-        <v>100</v>
-      </c>
-      <c r="C53" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>200</v>
       </c>
       <c r="B54" t="s">
-        <v>100</v>
-      </c>
-      <c r="C54" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>201</v>
       </c>
       <c r="B55" t="s">
-        <v>101</v>
-      </c>
-      <c r="C55" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>205</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
-      </c>
-      <c r="C56" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B57" t="s">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="C57" t="s">
         <v>32</v>
@@ -2374,10 +2892,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B58" t="s">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c r="C58" t="s">
         <v>32</v>
@@ -2385,10 +2903,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B59" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="C59" t="s">
         <v>32</v>
@@ -2396,98 +2914,74 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>113</v>
+        <v>202</v>
       </c>
       <c r="B60" t="s">
-        <v>109</v>
-      </c>
-      <c r="C60" t="s">
-        <v>32</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>114</v>
+        <v>203</v>
       </c>
       <c r="B61" t="s">
-        <v>109</v>
-      </c>
-      <c r="C61" t="s">
-        <v>32</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>115</v>
+        <v>267</v>
       </c>
       <c r="B62" t="s">
-        <v>114</v>
-      </c>
-      <c r="C62" t="s">
-        <v>32</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>116</v>
+        <v>204</v>
       </c>
       <c r="B63" t="s">
-        <v>114</v>
-      </c>
-      <c r="C63" t="s">
-        <v>32</v>
+        <v>200</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="B64" t="s">
-        <v>101</v>
-      </c>
-      <c r="C64" t="s">
-        <v>32</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>120</v>
+        <v>207</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
-      </c>
-      <c r="C65" t="s">
-        <v>32</v>
+        <v>201</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>119</v>
+        <v>208</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
-      </c>
-      <c r="C66" t="s">
-        <v>32</v>
+        <v>205</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>118</v>
+        <v>209</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
-      </c>
-      <c r="C67" t="s">
-        <v>32</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="B68" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C68" t="s">
         <v>32</v>
@@ -2495,155 +2989,495 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="B69" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="C69" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="B70" t="s">
-        <v>39</v>
-      </c>
-      <c r="C70" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>127</v>
+        <v>272</v>
       </c>
       <c r="B71" t="s">
-        <v>79</v>
-      </c>
-      <c r="C71" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>129</v>
+        <v>219</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
-      </c>
-      <c r="C72" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="B73" t="s">
-        <v>79</v>
-      </c>
-      <c r="C73" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
-      </c>
-      <c r="C74" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
-      </c>
-      <c r="C75" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>96</v>
+        <v>211</v>
       </c>
       <c r="B76" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="B77" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="C77" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="B78" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C78" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>93</v>
+        <v>212</v>
       </c>
       <c r="B79" t="s">
-        <v>130</v>
-      </c>
-      <c r="C79" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="B80" t="s">
-        <v>18</v>
-      </c>
-      <c r="C80" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>36</v>
+        <v>214</v>
       </c>
       <c r="B81" t="s">
-        <v>18</v>
-      </c>
-      <c r="C81" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>215</v>
+      </c>
+      <c r="B82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>216</v>
+      </c>
+      <c r="B83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>217</v>
+      </c>
+      <c r="B84" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>220</v>
+      </c>
+      <c r="B85" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>268</v>
+      </c>
+      <c r="B86" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>221</v>
+      </c>
+      <c r="B87" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>270</v>
+      </c>
+      <c r="B88" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>222</v>
+      </c>
+      <c r="B89" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>223</v>
+      </c>
+      <c r="B90" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>269</v>
+      </c>
+      <c r="B91" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>112</v>
+      </c>
+      <c r="B92" t="s">
+        <v>271</v>
+      </c>
+      <c r="C92" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>113</v>
+      </c>
+      <c r="B93" t="s">
+        <v>271</v>
+      </c>
+      <c r="C93" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>114</v>
+      </c>
+      <c r="B94" t="s">
+        <v>271</v>
+      </c>
+      <c r="C94" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>224</v>
+      </c>
+      <c r="B95" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>225</v>
+      </c>
+      <c r="B96" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>226</v>
+      </c>
+      <c r="B97" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>115</v>
+      </c>
+      <c r="B98" t="s">
+        <v>114</v>
+      </c>
+      <c r="C98" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>116</v>
+      </c>
+      <c r="B99" t="s">
+        <v>114</v>
+      </c>
+      <c r="C99" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>227</v>
+      </c>
+      <c r="B100" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>228</v>
+      </c>
+      <c r="B101" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>229</v>
+      </c>
+      <c r="B102" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>120</v>
+      </c>
+      <c r="B103" t="s">
+        <v>68</v>
+      </c>
+      <c r="C103" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>119</v>
+      </c>
+      <c r="B104" t="s">
+        <v>68</v>
+      </c>
+      <c r="C104" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>118</v>
+      </c>
+      <c r="B105" t="s">
+        <v>68</v>
+      </c>
+      <c r="C105" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>43</v>
+      </c>
+      <c r="B106" t="s">
+        <v>82</v>
+      </c>
+      <c r="C106" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>76</v>
+      </c>
+      <c r="B107" t="s">
+        <v>39</v>
+      </c>
+      <c r="C107" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>79</v>
+      </c>
+      <c r="B108" t="s">
+        <v>39</v>
+      </c>
+      <c r="C108" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>127</v>
+      </c>
+      <c r="B109" t="s">
+        <v>79</v>
+      </c>
+      <c r="C109" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>129</v>
+      </c>
+      <c r="B110" t="s">
+        <v>79</v>
+      </c>
+      <c r="C110" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>78</v>
+      </c>
+      <c r="B111" t="s">
+        <v>79</v>
+      </c>
+      <c r="C111" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>128</v>
+      </c>
+      <c r="B112" t="s">
+        <v>79</v>
+      </c>
+      <c r="C112" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>40</v>
+      </c>
+      <c r="B113" t="s">
+        <v>79</v>
+      </c>
+      <c r="C113" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>96</v>
+      </c>
+      <c r="B114" t="s">
+        <v>39</v>
+      </c>
+      <c r="C114" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>130</v>
+      </c>
+      <c r="B115" t="s">
+        <v>39</v>
+      </c>
+      <c r="C115" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>80</v>
+      </c>
+      <c r="B116" t="s">
+        <v>130</v>
+      </c>
+      <c r="C116" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>93</v>
+      </c>
+      <c r="B117" t="s">
+        <v>130</v>
+      </c>
+      <c r="C117" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>35</v>
+      </c>
+      <c r="B118" t="s">
+        <v>18</v>
+      </c>
+      <c r="C118" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>36</v>
+      </c>
+      <c r="B119" t="s">
+        <v>18</v>
+      </c>
+      <c r="C119" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
         <v>30</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B120" t="s">
         <v>18</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C120" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2653,6 +3487,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010001449525CC0D4A468C2D365388B70649" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a65db98c773bd2adb4fb1a4f8779ddbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="40c76612-3c18-47b5-846f-dcb51c2524b6" xmlns:ns3="23cfef9c-d18f-476b-8e1f-a34664fe34b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="33571bcc6e90c6922cba96434e625580" ns2:_="" ns3:_="">
     <xsd:import namespace="40c76612-3c18-47b5-846f-dcb51c2524b6"/>
@@ -2831,29 +3680,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{569EEA8A-4F6D-470D-8434-CB834DBE145E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4803A638-4724-4AF0-AD8E-CD3437E112AA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1E47B07-5301-4B68-8356-3BA26E8D9BC2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1E47B07-5301-4B68-8356-3BA26E8D9BC2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4803A638-4724-4AF0-AD8E-CD3437E112AA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{569EEA8A-4F6D-470D-8434-CB834DBE145E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="40c76612-3c18-47b5-846f-dcb51c2524b6"/>
+    <ds:schemaRef ds:uri="23cfef9c-d18f-476b-8e1f-a34664fe34b8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>